--- a/data/income_statement/2digits/size/38_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/38_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>38-Waste collection, treatment and disposal activities; materials recovery</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>38-Waste collection, treatment and disposal activities; materials recovery</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,638 +841,723 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>559858.1143800002</v>
+        <v>565271.2511700001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>921452.6057999999</v>
+        <v>921199.5438100001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1456609.05733</v>
+        <v>1478395.2052</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1789917.68997</v>
+        <v>1864333.34497</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1844948.38072</v>
+        <v>1901262.60796</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2459510.38248</v>
+        <v>2481219.46702</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2524158.32794</v>
+        <v>2486204.77007</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3028626.94621</v>
+        <v>3088448.6966</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>5628632.61104</v>
+        <v>5745981.717970001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>5317407.60254</v>
+        <v>5610838.43262</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>6215440.13031</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>6996635.2551</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>8685730.140000001</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>528453.5947400001</v>
+        <v>534540.0971</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>888000.7561200002</v>
+        <v>892332.5388</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1392536.79754</v>
+        <v>1414002.24109</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1737970.17834</v>
+        <v>1806445.88072</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1750675.87294</v>
+        <v>1798064.64589</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2349680.48179</v>
+        <v>2370100.03016</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2370085.96872</v>
+        <v>2340173.28884</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2781936.78957</v>
+        <v>2851683.21664</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>5174137.97292</v>
+        <v>5256557.52932</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>4732705.680050001</v>
+        <v>4973493.87013</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>5503734.065549999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>6068922.68141</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>7270140.739</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>20626.84777</v>
+        <v>20696.07747</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>12769.37757</v>
+        <v>12012.62022</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>49044.12143</v>
+        <v>49458.27669</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>30014.42946</v>
+        <v>31040.04918</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>48659.60167</v>
+        <v>47921.64274999999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>68457.22024</v>
+        <v>67453.45529000001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>115665.3666</v>
+        <v>108962.28381</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>175361.89151</v>
+        <v>166836.69914</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>366635.39915</v>
+        <v>363712.56407</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>497970.73289</v>
+        <v>494793.43621</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>602321.9074599999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>775018.1843199999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1304884.444</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>10777.67187</v>
+        <v>10035.0766</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>20682.47211</v>
+        <v>16854.38479</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>15028.13836</v>
+        <v>14934.68742</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>21933.08217</v>
+        <v>26847.41507</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>45612.90611</v>
+        <v>55276.31932</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>41372.68045</v>
+        <v>43665.98157</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>38406.99262</v>
+        <v>37069.19742</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>71328.26513</v>
+        <v>69928.78082</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>87859.23897000001</v>
+        <v>125711.62458</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>86731.1896</v>
+        <v>142551.12628</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>109384.1573</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>152694.38937</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>110704.957</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>2076.54</v>
+        <v>2014.99028</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>4915.53953</v>
+        <v>4891.66983</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>3940.60975</v>
+        <v>3846.25945</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>6023.54394</v>
+        <v>6820.01566</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>9291.16272</v>
+        <v>17711.63257</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>23052.65036</v>
+        <v>23258.72821</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>14131.00419</v>
+        <v>13547.08249</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>15466.2038</v>
+        <v>17027.77226</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>31649.47065</v>
+        <v>36949.57365</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>38860.39518</v>
+        <v>41196.287</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>53759.15573999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>54797.84776999999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>81690.246</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1903.52611</v>
+        <v>1830.84371</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>4331.17679</v>
+        <v>4324.507390000001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>3559.04169</v>
+        <v>3435.82113</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>3950.03276</v>
+        <v>4619.98091</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>6315.01083</v>
+        <v>14624.83414</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>12868.14802</v>
+        <v>12720.62343</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>8438.769789999998</v>
+        <v>8659.632099999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>9880.166130000001</v>
+        <v>11421.58854</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>16792.91989</v>
+        <v>20564.49527</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>21642.65004</v>
+        <v>23355.3471</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>24030.95236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>27318.00035</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>52086.107</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>145.0478</v>
+        <v>156.18048</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>299.16043</v>
+        <v>281.88289</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>193.04033</v>
+        <v>219.98658</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1550.19273</v>
+        <v>1663.82767</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>2706.72136</v>
+        <v>2817.3679</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>5611.365059999999</v>
+        <v>6006.01155</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>4367.03432</v>
+        <v>4346.17344</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>4679.651360000001</v>
+        <v>4867.898120000001</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>12244.41605</v>
+        <v>14401.69989</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>16663.6413</v>
+        <v>17326.87889</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>18382.49197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>19119.53601</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>23482.507</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>27.96609</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>285.20231</v>
+        <v>285.27955</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>188.52773</v>
+        <v>190.45174</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>523.31845</v>
+        <v>536.2070799999999</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>269.43053</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>4573.13728</v>
+        <v>4532.09323</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1325.20008</v>
+        <v>541.2769499999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>906.38631</v>
+        <v>738.2855999999999</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>2612.13471</v>
+        <v>1983.37849</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>554.10384</v>
+        <v>514.06101</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>11345.71141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>8360.31141</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>6121.632</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>557781.5743800001</v>
+        <v>563256.26089</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>916537.06627</v>
+        <v>916307.87398</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1452668.44758</v>
+        <v>1474548.94575</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1783894.14603</v>
+        <v>1857513.32931</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1835657.218</v>
+        <v>1883550.97539</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2436457.73212</v>
+        <v>2457960.73881</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2510027.32375</v>
+        <v>2472657.68758</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3013160.74241</v>
+        <v>3071420.92434</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>5596983.14039</v>
+        <v>5709032.144320001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>5278547.20736</v>
+        <v>5569642.14562</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>6161680.97457</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>6941837.40733</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>8604039.893999999</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>488228.61857</v>
+        <v>492806.14991</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>813670.38497</v>
+        <v>813628.79805</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1279338.29761</v>
+        <v>1295252.86404</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1617941.7482</v>
+        <v>1682328.68672</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1669058.55453</v>
+        <v>1711078.25553</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2189701.17613</v>
+        <v>2210598.21784</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2316692.46474</v>
+        <v>2283250.21483</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2738674.3749</v>
+        <v>2778815.43556</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>5104583.08482</v>
+        <v>5171740.75255</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>4792152.01991</v>
+        <v>5030216.827219999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5444361.48127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>6168570.83203</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>7601035.037</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>117773.37065</v>
+        <v>130062.05276</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>276125.42085</v>
+        <v>283869.25955</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>463568.2262</v>
+        <v>466313.8586</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>602393.6987599999</v>
+        <v>632493.10947</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>835647.42437</v>
+        <v>843019.77961</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>990061.5337499999</v>
+        <v>1018274.93845</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1217925.54717</v>
+        <v>1212315.85654</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1117727.81794</v>
+        <v>1191500.31936</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>1879311.97613</v>
+        <v>1892778.9659</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1697516.5783</v>
+        <v>1947122.90243</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2323494.56196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2755704.52021</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>3532310.57</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>232890.86612</v>
+        <v>229686.04033</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>355868.80495</v>
+        <v>351691.41183</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>557201.08384</v>
+        <v>554063.63628</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>654106.14682</v>
+        <v>663350.3434499999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>481243.39135</v>
+        <v>518738.04339</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>761461.5395799999</v>
+        <v>748943.6571900001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>716416.89535</v>
+        <v>682717.1720700001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1117610.40352</v>
+        <v>1090768.33077</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2500321.23432</v>
+        <v>2533293.54202</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2002036.62446</v>
+        <v>1969341.53118</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2076091.03296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2216069.53221</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2896218.309</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>137467.77017</v>
+        <v>132961.44519</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>178978.76083</v>
+        <v>177337.72833</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>258378.02442</v>
+        <v>274670.63007</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>360956.79854</v>
+        <v>386000.12972</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>351513.91188</v>
+        <v>347910.78863</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>432887.78821</v>
+        <v>437955.32961</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>371234.26034</v>
+        <v>377331.82892</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>493860.5302</v>
+        <v>488097.91303</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>710946.5364700001</v>
+        <v>718156.44582</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1057030.31273</v>
+        <v>1062864.61424</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1021635.80305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1161232.68507</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1101296.154</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>96.61163000000001</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>2697.39834</v>
+        <v>730.3983400000001</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>190.96315</v>
+        <v>204.73909</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>485.10408</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>653.8269299999999</v>
+        <v>1409.6439</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>5290.31459</v>
+        <v>5424.29259</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>11115.76188</v>
+        <v>10885.3573</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>9475.623240000001</v>
+        <v>8448.8724</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>14003.3379</v>
+        <v>27511.79881</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>35568.50442</v>
+        <v>50887.77937</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>23140.0833</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>35564.09454</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>71210.004</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>69552.95581</v>
+        <v>70450.11098</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>102866.6813</v>
+        <v>102679.07593</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>173330.14997</v>
+        <v>179296.08171</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>165952.39783</v>
+        <v>175184.64259</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>166598.66347</v>
+        <v>172472.71986</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>246756.55599</v>
+        <v>247362.52097</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>193334.85901</v>
+        <v>189407.47275</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>274486.36751</v>
+        <v>292605.48878</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>492400.05557</v>
+        <v>537291.39177</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>486395.18745</v>
+        <v>539425.3184</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>717319.4933</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>773266.5752999999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1003004.857</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>44095.43222</v>
+        <v>39561.625</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>66718.23718</v>
+        <v>63399.85093000001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>108769.36009</v>
+        <v>111577.8045</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>119138.44926</v>
+        <v>143269.23595</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>112327.31245</v>
+        <v>126992.36094</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>159976.31096</v>
+        <v>155721.3285</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>180869.43963</v>
+        <v>166332.87391</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>186947.68853</v>
+        <v>175041.88411</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>277830.70991</v>
+        <v>292729.28125</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>281327.87148</v>
+        <v>305666.43574</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>407508.25867</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>447562.32706</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>537267.86</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>426.8742099999999</v>
@@ -1583,229 +1569,259 @@
         <v>124.31482</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>33.04969999999999</v>
+        <v>2204.02333</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>1005.17853</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>132.73947</v>
+        <v>159.9035</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>63.71889</v>
+        <v>12.00661</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>101.7223</v>
+        <v>64.73176000000001</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1781.78833</v>
+        <v>1779.87079</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>2960.34823</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>790.4797600000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3787.17635</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>2501.824</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>12281.09832</v>
+        <v>12432.35301</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>16265.12042</v>
+        <v>16289.17184</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>44866.05535</v>
+        <v>45209.71038</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>40515.03801999999</v>
+        <v>42378.05278</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>29526.4394</v>
+        <v>30266.0596</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>46676.25048</v>
+        <v>44177.96648</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>41243.72022</v>
+        <v>41039.50404</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>56048.03355</v>
+        <v>56107.72054000001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>83348.31989</v>
+        <v>80071.36406000001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>84908.51671000001</v>
+        <v>86337.33025</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>135970.04295</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>142661.37455</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>154503.619</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>31387.45969</v>
+        <v>26702.39778</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>50452.82549</v>
+        <v>47110.38782</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>63778.98992</v>
+        <v>66243.77929999999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>78590.36154</v>
+        <v>98687.15984000001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>81795.69452</v>
+        <v>95721.12281</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>113167.32101</v>
+        <v>111383.45852</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>139562.00052</v>
+        <v>125281.36326</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>130797.93268</v>
+        <v>118869.43181</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>192700.60169</v>
+        <v>210878.0464</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>193459.00654</v>
+        <v>216368.75726</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>270747.73596</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>301113.77616</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>380262.417</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>25457.52359</v>
+        <v>30888.48598</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>36148.44412000001</v>
+        <v>39279.225</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>64560.78988</v>
+        <v>67718.27721000001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>46813.94857</v>
+        <v>31915.40664</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>54271.35102</v>
+        <v>45480.35892</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>86780.24503000001</v>
+        <v>91641.19246999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>12465.41938</v>
+        <v>23074.59884</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>87538.67898</v>
+        <v>117563.60467</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>214569.34566</v>
+        <v>244562.11052</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>205067.31597</v>
+        <v>233758.88266</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>309811.23463</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>325704.24824</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>465736.997</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>14363.78787</v>
+        <v>16095.23664</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>19265.96812</v>
+        <v>17405.3307</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>23749.56184</v>
+        <v>22685.5406</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>20736.41447</v>
+        <v>29779.28807</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>27524.68417</v>
+        <v>41251.87051000001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>30554.22622</v>
+        <v>41716.4522</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>56858.81296</v>
+        <v>43826.34979</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>45815.78804</v>
+        <v>31218.31124</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>58129.83090000001</v>
+        <v>125080.48733</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>200165.13223</v>
+        <v>337718.01008</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>194941.33853</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>253983.02049</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>357281.491</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>332.14165</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>5365.16124</v>
+        <v>4368.12235</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>4227.54603</v>
+        <v>4226.52943</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>4076.61687</v>
+        <v>4074.51435</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>3769.34198</v>
+        <v>2257.8792</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>117.55849</v>
+        <v>116.88913</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>5866.00364</v>
+        <v>361.00901</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>5700.93025</v>
+        <v>376.50036</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>6398.4583</v>
+        <v>1119.04333</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>1814.70502</v>
+        <v>9472.9622</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>1065.29675</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>22142.57293</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>47727.582</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1814,10 +1830,10 @@
         <v>2005.46668</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>3084.03139</v>
+        <v>2493.51768</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>822.20573</v>
+        <v>4664.60558</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>0</v>
@@ -1826,64 +1842,74 @@
         <v>0</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>3819.98097</v>
+        <v>3630.62641</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>4596.368719999999</v>
+        <v>0</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>4613.17695</v>
+        <v>32087.04577</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>5809.46219</v>
+        <v>1144.89308</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>7654.53676</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>3095.05849</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>2812.855</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>3140.12742</v>
+        <v>1929.01448</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>2020.34429</v>
+        <v>1362.07249</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>3567.89274</v>
+        <v>3357.04238</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>2738.93361</v>
+        <v>5840.56548</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1963.95269</v>
+        <v>7417.82708</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>2372.90928</v>
+        <v>3545.48772</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>5899.1104</v>
+        <v>6178.979359999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>7391.26876</v>
+        <v>10447.19898</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>8458.396480000001</v>
+        <v>13851.3164</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>14630.1424</v>
+        <v>42833.89709</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>26049.26985</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>39363.00289</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>45806.607</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1.91435</v>
@@ -1892,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>16.20422</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>231.99115</v>
@@ -1901,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>36.0472</v>
+        <v>32.456</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>0</v>
@@ -1916,130 +1942,150 @@
         <v>450.98035</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>37.45095</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>230.95995</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>141.998</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>896.6482</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1651.09856</v>
+        <v>1181.45878</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>200.62409</v>
+        <v>255.90391</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>2577.55865</v>
+        <v>2624.66617</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>916.97589</v>
+        <v>942.99032</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>2658.719090000001</v>
+        <v>7788.72754</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1432.00333</v>
+        <v>1432.18033</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>125.31819</v>
+        <v>208.305</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>428.77936</v>
+        <v>510.6794</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1223.17656</v>
+        <v>1866.58966</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>28022.56762</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>28206.90984</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>14888.655</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>126.66645</v>
+        <v>126.45387</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>298.27104</v>
+        <v>298.10352</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>130.63783</v>
+        <v>99.59417999999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>508.6144</v>
+        <v>508.1535</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>174.83224</v>
+        <v>174.83085</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>413.22692</v>
+        <v>368.1871599999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>359.65665</v>
+        <v>345.02583</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1469.48915</v>
+        <v>1464.93909</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>570.67787</v>
+        <v>569.3996999999999</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>324.03819</v>
+        <v>324.02125</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>313.44859</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>295.07714</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1224.124</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>6527.11786</v>
+        <v>9552.649300000001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>5709.83584</v>
+        <v>6252.339650000001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>10484.19216</v>
+        <v>9967.63816</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>6139.4878</v>
+        <v>9476.926660000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>8057.68489</v>
+        <v>25233.89201</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>10771.18243</v>
+        <v>11136.59815</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>25268.10564</v>
+        <v>18641.60077</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>21417.91948</v>
+        <v>15571.10039</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>32591.74155</v>
+        <v>70308.22977999999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>151775.06486</v>
+        <v>256472.10995</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>104433.03421</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>133426.90599</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>207422.796</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2057,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>799.45407</v>
+        <v>0</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,92 +2164,107 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>3339.171940000001</v>
+        <v>3256.41479</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1903.87923</v>
+        <v>1625.85599</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>2038.43338</v>
+        <v>2285.314859999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>3641.00626</v>
+        <v>2357.86518</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>12641.89648</v>
+        <v>5224.45105</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>13385.12874</v>
+        <v>18728.1065</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>14213.95233</v>
+        <v>13236.92808</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>5091.55891</v>
+        <v>3127.33284</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>4987.32421</v>
+        <v>6553.49677</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>23947.70309</v>
+        <v>24962.69693</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>27365.7338</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>27222.53326</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>37256.874</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>10874.13411</v>
+        <v>13396.11493</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>7721.28658</v>
+        <v>7490.32486</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>15893.24745</v>
+        <v>17321.02998</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>6870.8556</v>
+        <v>8306.183069999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>19135.98823</v>
+        <v>58881.13403</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>17676.85013</v>
+        <v>32131.4328</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>38380.04874000001</v>
+        <v>29357.65534</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>38018.33408</v>
+        <v>33261.57228</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>44104.83380000001</v>
+        <v>102345.01171</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>170304.80401</v>
+        <v>339510.0241899999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>203942.82387</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>231673.98626</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>320527.302</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>40.51024</v>
+        <v>181.77036</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>50.91116</v>
@@ -2213,67 +2279,77 @@
         <v>150.13616</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>169.97576</v>
+        <v>159.37484</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>43.92786</v>
+        <v>23.65342</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>41.99205000000001</v>
+        <v>20.84036</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>96.82510000000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>32.58594</v>
+        <v>7.105569999999999</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>58.40028</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>196.58134</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>57.377</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>2628.37521</v>
+        <v>2518.26072</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>825.9989</v>
+        <v>421.6174800000001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>326.48858</v>
+        <v>430.7688199999999</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1196.34562</v>
+        <v>983.85487</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>4211.41103</v>
+        <v>2153.07952</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>2786.17627</v>
+        <v>17106.85015</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1842.43646</v>
+        <v>1688.54242</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>4276.445350000001</v>
+        <v>4281.811140000001</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>1059.75857</v>
+        <v>1570.36547</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>10705.25873</v>
+        <v>11655.56327</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>43020.71235</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>33437.99905</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>23460.163</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.0619</v>
@@ -2291,10 +2367,10 @@
         <v>0.62079</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>101.38841</v>
+        <v>0</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>52.62289</v>
+        <v>21.54889</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>0.06149</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>7054.535110000001</v>
+        <v>9547.04823</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>5319.49672</v>
+        <v>5640.098529999999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>11020.63827</v>
+        <v>12379.13155</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>4975.17832</v>
+        <v>6568.93235</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>10200.52418</v>
+        <v>53064.99098999999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>8750.715890000001</v>
+        <v>7219.948179999999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>23467.82006</v>
+        <v>15811.68603</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>29366.83827</v>
+        <v>25399.38294</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>38992.455</v>
+        <v>89848.03078</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>142766.14965</v>
+        <v>314980.88401</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>126148.02815</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>167558.77246</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>286420.235</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2366,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>465.30244</v>
+        <v>0.29904</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>493.79471</v>
+        <v>159.34404</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,131 +2516,151 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1150.65165</v>
+        <v>1148.97372</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>773.2576299999999</v>
+        <v>626.07552</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>4524.79045</v>
+        <v>4489.79946</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>443.05061</v>
+        <v>497.1148</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>4107.99363</v>
+        <v>3512.00753</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>5374.79909</v>
+        <v>7485.91559</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>12973.24147</v>
+        <v>11812.22458</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>4332.99692</v>
+        <v>3559.47635</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>3933.03174</v>
+        <v>10807.02697</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>16023.66758</v>
+        <v>12089.32923</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>34715.68309000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>30480.63341</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>10589.527</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>14266.82804</v>
+        <v>15039.83171</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>13383.93873</v>
+        <v>13131.537</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>18220.14845</v>
+        <v>21112.93694</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>28260.31129</v>
+        <v>49176.02004</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>33206.63808</v>
+        <v>54268.30964</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>40641.86426</v>
+        <v>41373.00942</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>45939.37965</v>
+        <v>41796.95738</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>61421.10483</v>
+        <v>58816.90117</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>76469.87419</v>
+        <v>105622.14162</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>142598.18443</v>
+        <v>241244.0974</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>250381.37897</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>256442.46965</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>208074.517</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>11665.96577</v>
+        <v>8926.499539999999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>11441.80456</v>
+        <v>11189.40283</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>15736.67965</v>
+        <v>18629.46814</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>22787.85327</v>
+        <v>43703.56202</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>27651.84305</v>
+        <v>33640.20542</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>34700.11253</v>
+        <v>33628.37703</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>41183.67421</v>
+        <v>37227.6629</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>55879.61235</v>
+        <v>51957.03591999999</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>69492.66771000001</v>
+        <v>80747.74560000001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>116637.32448</v>
+        <v>165982.6819</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>204915.99303</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>192702.98337</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>189745.631</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>2600.86227</v>
+        <v>6113.33217</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>1942.13417</v>
@@ -2561,115 +2672,130 @@
         <v>5472.45802</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>5554.79503</v>
+        <v>20628.10422</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>5941.751730000001</v>
+        <v>7744.632390000001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>4755.70544</v>
+        <v>4569.29448</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>5541.492480000001</v>
+        <v>6859.86525</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>6977.206480000001</v>
+        <v>24874.39602</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>25960.85995</v>
+        <v>75261.4155</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>45465.38594000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>63739.48628</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>18328.886</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>14680.34931</v>
+        <v>18547.77598</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>34309.18693</v>
+        <v>36062.69384000001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>54196.95582</v>
+        <v>51969.85089</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>32419.19615</v>
+        <v>4212.491599999998</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>29453.40888</v>
+        <v>-26417.21424</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>59015.75686</v>
+        <v>59853.20245</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-14995.19605</v>
+        <v>-4253.664090000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>33915.02811</v>
+        <v>56703.44246</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>152124.46857</v>
+        <v>161675.44452</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>92329.45976000001</v>
+        <v>-9277.228850000009</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>50428.37032</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>91570.81281999999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>294416.669</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1626.60444</v>
+        <v>2710.49889</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>5879.63926</v>
+        <v>8400.970650000001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>7033.392709999999</v>
+        <v>8507.477620000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>11432.59855</v>
+        <v>13073.65477</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>13010.2108</v>
+        <v>12273.68549</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>12743.65901</v>
+        <v>27338.75293</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>27455.79468</v>
+        <v>25163.63193</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>37707.63575</v>
+        <v>35119.43659</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>24021.77689</v>
+        <v>21193.18818</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>28435.1628</v>
+        <v>29860.87708</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>75526.40906000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>79652.50201000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>98407.91</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>8.2247</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>99.90322</v>
+        <v>99.90321999999999</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>840.60799</v>
@@ -2678,154 +2804,174 @@
         <v>30.48679</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>256.81734</v>
+        <v>258.81582</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>691.84923</v>
+        <v>685.0451899999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>749.28097</v>
+        <v>771.23564</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>194.67399</v>
+        <v>482.4825300000001</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>396.32302</v>
+        <v>394.68672</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>291.66922</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>730.1337</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>856.2783300000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2873.262</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1618.37974</v>
+        <v>2702.274190000001</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>5779.73604</v>
+        <v>8301.067429999999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>6192.784720000001</v>
+        <v>7666.869630000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>11402.11176</v>
+        <v>13043.16798</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>12753.39346</v>
+        <v>12014.86967</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>12051.80978</v>
+        <v>26653.70774</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>26706.51371</v>
+        <v>24392.39629</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>37512.96176000001</v>
+        <v>34636.95406</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>23625.45387</v>
+        <v>20798.50146</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>28143.49358</v>
+        <v>29569.20786</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>74796.27536</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>78796.22368000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>95534.648</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>3448.28189</v>
+        <v>3263.53613</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>4142.27684</v>
+        <v>3940.613150000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>33088.1147</v>
+        <v>35650.50565000001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>8579.494290000001</v>
+        <v>9327.095959999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>13093.02981</v>
+        <v>19684.85358</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>21913.42424</v>
+        <v>18943.93187</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>20644.17128</v>
+        <v>18625.77052</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>39598.01742</v>
+        <v>35947.46829</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>24883.9124</v>
+        <v>29823.72709</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>69469.67495999999</v>
+        <v>97495.24505000001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>80599.34365000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>107270.55897</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>120233.732</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>278.68602</v>
+        <v>204.81927</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>204.24184</v>
+        <v>205.38633</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1832.85352</v>
+        <v>2506.55268</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>289.99935</v>
+        <v>1149.90737</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>409.9262</v>
+        <v>758.5415300000001</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>2747.57938</v>
+        <v>98.51824999999999</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1908.93116</v>
+        <v>240.15482</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>473.25877</v>
+        <v>102.68138</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1168.57343</v>
+        <v>1406.47858</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>842.8861100000001</v>
+        <v>2979.82251</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>12244.74613</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>6783.819390000001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>96.07899999999999</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>97.04882000000001</v>
+        <v>42.41006</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>617.3518700000001</v>
+        <v>533.6006</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>194.14359</v>
@@ -2834,184 +2980,207 @@
         <v>181.4914</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>46.74275</v>
+        <v>62.99684000000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>234.64088</v>
+        <v>232.33274</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1549.34886</v>
+        <v>1543.77758</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>362.9656</v>
+        <v>281.72921</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1775.4172</v>
+        <v>3273.69593</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>1526.1067</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>10475.82734</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1685.67133</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>53348.288</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>3072.54705</v>
+        <v>3016.3068</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>3320.68313</v>
+        <v>3201.62622</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>31061.11758999999</v>
+        <v>32949.80938000001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>8108.003539999999</v>
+        <v>7995.697190000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>12636.36086</v>
+        <v>18863.31521</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>18931.20398</v>
+        <v>18613.08088</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>17185.89126</v>
+        <v>16841.83812</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>38761.79305</v>
+        <v>35563.0577</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>21939.92177</v>
+        <v>25143.55258</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>67100.68214999999</v>
+        <v>92989.31584000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>57878.77018</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>98801.06825</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>66789.36500000001</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>12858.67186</v>
+        <v>17994.73874</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>36046.54934999999</v>
+        <v>40523.05134000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>28142.23383</v>
+        <v>24826.82286</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>35272.30041</v>
+        <v>7959.05041</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>29370.58987</v>
+        <v>-33828.38233</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>49845.99163</v>
+        <v>68248.02351</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-8183.572650000001</v>
+        <v>2284.19732</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>32024.64644</v>
+        <v>55875.41076000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>151262.33306</v>
+        <v>153044.90561</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>51294.9476</v>
+        <v>-76911.59681999999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>45355.43573</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>63952.75586</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>272590.847</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>4352.728609999999</v>
+        <v>4113.49093</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>6632.24941</v>
+        <v>6475.35859</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>12086.58667</v>
+        <v>11882.28467</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>8759.02269</v>
+        <v>9712.536269999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>10729.97638</v>
+        <v>9650.680109999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>20183.35395</v>
+        <v>23112.48348</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>11416.81759</v>
+        <v>10275.88648</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>13331.18897</v>
+        <v>12626.98582</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>32317.8724</v>
+        <v>32033.77731</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>29935.07766</v>
+        <v>29961.56653</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>39704.60189</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>52140.59946</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>76777.607</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>8505.94325</v>
+        <v>13881.24781</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>29414.29994</v>
+        <v>34047.69275</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>16055.64716</v>
+        <v>12944.53819</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>26513.27772</v>
+        <v>-1753.485859999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>18640.61349</v>
+        <v>-43479.06243999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>29662.63768</v>
+        <v>45135.54003</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-19600.39024</v>
+        <v>-7991.68916</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>18693.45747</v>
+        <v>43248.42494</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>118944.46066</v>
+        <v>121011.1283</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>21359.86994</v>
+        <v>-106873.16335</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>5650.833840000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>11812.1564</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>195813.24</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E59" s="35" t="n">
+        <v>113</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>127</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>100</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>129</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>142</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>150</v>
+      </c>
+      <c r="K59" s="35" t="n">
+        <v>200</v>
+      </c>
+      <c r="L59" s="35" t="n">
+        <v>125</v>
+      </c>
+      <c r="M59" s="35" t="n">
         <v>119</v>
       </c>
-      <c r="F59" s="35" t="n">
-        <v>134</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>113</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>155</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>177</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>195</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>238</v>
-      </c>
-      <c r="L59" s="35" t="n">
-        <v>142</v>
-      </c>
-      <c r="M59" s="35" t="n">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" s="35" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>